--- a/data/financial_statements/sofp/ODFL.xlsx
+++ b/data/financial_statements/sofp/ODFL.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -113,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -478,144 +589,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>375556000</v>
+        <v>376000000</v>
       </c>
       <c r="C2">
-        <v>420525000</v>
+        <v>421000000</v>
       </c>
       <c r="D2">
-        <v>541305100</v>
+        <v>541000000</v>
       </c>
       <c r="E2">
-        <v>716997000</v>
+        <v>717000000</v>
       </c>
       <c r="F2">
-        <v>564660000</v>
+        <v>565000000</v>
       </c>
       <c r="G2">
         <v>649458000</v>
@@ -721,23 +832,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>653794000</v>
+        <v>654000000</v>
       </c>
       <c r="C3">
-        <v>701367000</v>
+        <v>701000000</v>
       </c>
       <c r="D3">
-        <v>681389000</v>
+        <v>681000000</v>
       </c>
       <c r="E3">
-        <v>599102000</v>
+        <v>599000000</v>
       </c>
       <c r="F3">
-        <v>654049000</v>
+        <v>654000000</v>
       </c>
       <c r="G3">
         <v>600056000</v>
@@ -843,8 +954,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>82000000</v>
@@ -884,23 +995,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1111197000</v>
+        <v>1111000000</v>
       </c>
       <c r="C5">
-        <v>1209090000</v>
+        <v>1209000000</v>
       </c>
       <c r="D5">
-        <v>1280957000</v>
+        <v>1281000000</v>
       </c>
       <c r="E5">
-        <v>1383787000</v>
+        <v>1384000000</v>
       </c>
       <c r="F5">
-        <v>1278852000</v>
+        <v>1279000000</v>
       </c>
       <c r="G5">
         <v>1311115000</v>
@@ -1006,23 +1117,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>3491511000</v>
+        <v>3492000000</v>
       </c>
       <c r="C6">
-        <v>3378732000</v>
+        <v>3379000000</v>
       </c>
       <c r="D6">
-        <v>3225308000</v>
+        <v>3225000000</v>
       </c>
       <c r="E6">
-        <v>3215686000</v>
+        <v>3316000000</v>
       </c>
       <c r="F6">
-        <v>3110114000</v>
+        <v>3110000000</v>
       </c>
       <c r="G6">
         <v>2998727000</v>
@@ -1128,8 +1239,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="J7">
         <v>19463000</v>
@@ -1226,23 +1337,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>208685000</v>
+        <v>209000000</v>
       </c>
       <c r="C8">
-        <v>206045000</v>
+        <v>206000000</v>
       </c>
       <c r="D8">
-        <v>216385000</v>
+        <v>216000000</v>
       </c>
       <c r="E8">
-        <v>222071000</v>
+        <v>122000000</v>
       </c>
       <c r="F8">
-        <v>224154000</v>
+        <v>224000000</v>
       </c>
       <c r="G8">
         <v>224604000</v>
@@ -1348,8 +1459,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>3700196000</v>
@@ -1470,23 +1581,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>4811393000</v>
+        <v>4811000000</v>
       </c>
       <c r="C10">
-        <v>4793867000</v>
+        <v>4794000000</v>
       </c>
       <c r="D10">
-        <v>4722650000</v>
+        <v>4723000000</v>
       </c>
       <c r="E10">
-        <v>4821544000</v>
+        <v>4822000000</v>
       </c>
       <c r="F10">
-        <v>4613120000</v>
+        <v>4613000000</v>
       </c>
       <c r="G10">
         <v>4534446000</v>
@@ -1592,23 +1703,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>120160000</v>
+        <v>120000000</v>
       </c>
       <c r="C11">
-        <v>136480000</v>
+        <v>136000000</v>
       </c>
       <c r="D11">
-        <v>117850000</v>
+        <v>118000000</v>
       </c>
       <c r="E11">
-        <v>82519000</v>
+        <v>83000000</v>
       </c>
       <c r="F11">
-        <v>135044000</v>
+        <v>135000000</v>
       </c>
       <c r="G11">
         <v>90956000</v>
@@ -1714,8 +1825,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>66228000</v>
@@ -1836,8 +1947,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>20000000</v>
@@ -1916,8 +2027,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>45097000</v>
@@ -2008,23 +2119,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>293688000</v>
+        <v>454000000</v>
       </c>
       <c r="C15">
-        <v>264070000</v>
+        <v>422000000</v>
       </c>
       <c r="D15">
-        <v>223096000</v>
+        <v>377000000</v>
       </c>
       <c r="E15">
-        <v>257905000</v>
+        <v>368000000</v>
       </c>
       <c r="F15">
-        <v>244168000</v>
+        <v>399000000</v>
       </c>
       <c r="G15">
         <v>245762000</v>
@@ -2130,23 +2241,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>639327000</v>
+        <v>639000000</v>
       </c>
       <c r="C16">
-        <v>628178000</v>
+        <v>628000000</v>
       </c>
       <c r="D16">
-        <v>578596000</v>
+        <v>579000000</v>
       </c>
       <c r="E16">
-        <v>464234000</v>
+        <v>464000000</v>
       </c>
       <c r="F16">
-        <v>534291000</v>
+        <v>534000000</v>
       </c>
       <c r="G16">
         <v>482018000</v>
@@ -2252,23 +2363,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>79959000</v>
+        <v>80000000</v>
       </c>
       <c r="C17">
-        <v>79955000</v>
+        <v>80000000</v>
       </c>
       <c r="D17">
-        <v>99951000</v>
+        <v>100000000</v>
       </c>
       <c r="E17">
-        <v>99947000</v>
+        <v>189000000</v>
       </c>
       <c r="F17">
-        <v>99943000</v>
+        <v>100000000</v>
       </c>
       <c r="G17">
         <v>99939000</v>
@@ -2371,23 +2482,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>268384000</v>
+        <v>268000000</v>
       </c>
       <c r="C18">
-        <v>248718000</v>
+        <v>249000000</v>
       </c>
       <c r="D18">
-        <v>248718000</v>
+        <v>249000000</v>
       </c>
       <c r="E18">
-        <v>248718000</v>
+        <v>249000000</v>
       </c>
       <c r="F18">
-        <v>228667000</v>
+        <v>229000000</v>
       </c>
       <c r="G18">
         <v>220210000</v>
@@ -2493,23 +2604,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>265553000</v>
+        <v>266000000</v>
       </c>
       <c r="C19">
-        <v>281187000</v>
+        <v>281000000</v>
       </c>
       <c r="D19">
-        <v>292078000</v>
+        <v>292000000</v>
       </c>
       <c r="E19">
-        <v>328838000</v>
+        <v>240000000</v>
       </c>
       <c r="F19">
-        <v>330321000</v>
+        <v>330000000</v>
       </c>
       <c r="G19">
         <v>329901000</v>
@@ -2615,8 +2726,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>613896000</v>
@@ -2737,23 +2848,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>1253223000</v>
+        <v>1253000000</v>
       </c>
       <c r="C21">
-        <v>1238038000</v>
+        <v>1238000000</v>
       </c>
       <c r="D21">
-        <v>1219343000</v>
+        <v>1219000000</v>
       </c>
       <c r="E21">
-        <v>1141737000</v>
+        <v>1142000000</v>
       </c>
       <c r="F21">
-        <v>1193222000</v>
+        <v>1193000000</v>
       </c>
       <c r="G21">
         <v>1132068000</v>
@@ -2859,8 +2970,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>240790000</v>
@@ -2981,23 +3092,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>11095000</v>
+        <v>11000000</v>
       </c>
       <c r="C23">
-        <v>11224000</v>
+        <v>11000000</v>
       </c>
       <c r="D23">
-        <v>11376000</v>
+        <v>11000000</v>
       </c>
       <c r="E23">
-        <v>11501000</v>
+        <v>12000000</v>
       </c>
       <c r="F23">
-        <v>11501000</v>
+        <v>12000000</v>
       </c>
       <c r="G23">
         <v>11581000</v>
@@ -3103,23 +3214,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>3306285000</v>
+        <v>3306000000</v>
       </c>
       <c r="C24">
-        <v>3307614000</v>
+        <v>3308000000</v>
       </c>
       <c r="D24">
-        <v>3358759000</v>
+        <v>3359000000</v>
       </c>
       <c r="E24">
-        <v>3493861000</v>
+        <v>3494000000</v>
       </c>
       <c r="F24">
-        <v>3238057000</v>
+        <v>3238000000</v>
       </c>
       <c r="G24">
         <v>3230593000</v>
@@ -3225,23 +3336,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>3558170000</v>
+        <v>3558000000</v>
       </c>
       <c r="C25">
-        <v>3555829000</v>
+        <v>3556000000</v>
       </c>
       <c r="D25">
-        <v>3503307000</v>
+        <v>3503000000</v>
       </c>
       <c r="E25">
-        <v>3679807000</v>
+        <v>3680000000</v>
       </c>
       <c r="F25">
-        <v>3419898000</v>
+        <v>3420000000</v>
       </c>
       <c r="G25">
         <v>3402378000</v>
@@ -3347,23 +3458,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>3558170000</v>
+        <v>3558000000</v>
       </c>
       <c r="C26">
-        <v>3555829000</v>
+        <v>3556000000</v>
       </c>
       <c r="D26">
-        <v>3503307000</v>
+        <v>3503000000</v>
       </c>
       <c r="E26">
-        <v>3679807000</v>
+        <v>3680000000</v>
       </c>
       <c r="F26">
-        <v>3419898000</v>
+        <v>3420000000</v>
       </c>
       <c r="G26">
         <v>3402378000</v>
@@ -3469,8 +3580,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>4811393000</v>
@@ -3591,8 +3702,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>110955000</v>
@@ -3713,8 +3824,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>3558170000</v>
@@ -3835,23 +3946,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>-275597000</v>
+        <v>-276000000</v>
       </c>
       <c r="C30">
-        <v>-320570000</v>
+        <v>-321000000</v>
       </c>
       <c r="D30">
-        <v>-441354100</v>
+        <v>-441000000</v>
       </c>
       <c r="E30">
-        <v>-603050000</v>
+        <v>-514000000</v>
       </c>
       <c r="F30">
-        <v>-464717000</v>
+        <v>-465000000</v>
       </c>
       <c r="G30">
         <v>-549519000</v>
@@ -3957,23 +4068,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>99959000</v>
+        <v>100000000</v>
       </c>
       <c r="C31">
-        <v>99955000</v>
+        <v>100000000</v>
       </c>
       <c r="D31">
-        <v>99951000</v>
+        <v>100000000</v>
       </c>
       <c r="E31">
-        <v>113947000</v>
+        <v>203000000</v>
       </c>
       <c r="F31">
-        <v>99943000</v>
+        <v>100000000</v>
       </c>
       <c r="G31">
         <v>99939000</v>
